--- a/cargos/cargosList.xlsx
+++ b/cargos/cargosList.xlsx
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Fira Code Retina"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Fira Code Retina"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -277,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -288,12 +300,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,16 +933,16 @@
       <c r="B11" s="5">
         <v>6000</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -968,10 +987,10 @@
       <c r="AB11" t="s">
         <v>29</v>
       </c>
-      <c r="AD11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AD11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AG11" s="4" t="s">
@@ -986,40 +1005,40 @@
       <c r="AK11" t="s">
         <v>29</v>
       </c>
-      <c r="AM11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="AM11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="BE11" s="4" t="s">
@@ -1045,10 +1064,10 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1057,28 +1076,28 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="O12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="4" t="s">
+      <c r="U12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AA12" s="4" t="s">
@@ -1087,22 +1106,22 @@
       <c r="AB12" t="s">
         <v>40</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AG12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AG12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AM12" s="4" t="s">
@@ -1141,10 +1160,10 @@
       <c r="BC12" t="s">
         <v>52</v>
       </c>
-      <c r="BE12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF12" t="s">
+      <c r="BE12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF12" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1153,10 +1172,10 @@
         <v>14000</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1185,10 +1204,10 @@
       <c r="Y13" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AA13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AD13" s="4" t="s">
@@ -1260,17 +1279,17 @@
         <v>31</v>
       </c>
       <c r="R14" s="4"/>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="X14" s="4"/>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="4" t="s">
@@ -1279,10 +1298,10 @@
       <c r="AE14" t="s">
         <v>43</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AG14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AJ14" s="4" t="s">
@@ -1298,10 +1317,10 @@
       <c r="AZ14" t="s">
         <v>31</v>
       </c>
-      <c r="BE14" s="4" t="s">
+      <c r="BE14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BF14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1311,17 +1330,17 @@
       </c>
       <c r="C15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R15" s="4"/>
@@ -1350,10 +1369,10 @@
       <c r="AH15" t="s">
         <v>30</v>
       </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AJ15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AM15" s="4"/>

--- a/cargos/cargosList.xlsx
+++ b/cargos/cargosList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
   <si>
     <t>Base game</t>
   </si>
@@ -187,13 +187,127 @@
   </si>
   <si>
     <t>Tourists</t>
+  </si>
+  <si>
+    <t>SALT</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>scrap metal</t>
+  </si>
+  <si>
+    <t>iron ore</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>engineer suppl</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>bauxite</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>limestone</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>pyrite ore</t>
+  </si>
+  <si>
+    <t>soda ash</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>fish &amp; meat</t>
+  </si>
+  <si>
+    <t>metal parts</t>
+  </si>
+  <si>
+    <t>SCMT</t>
+  </si>
+  <si>
+    <t>SASH</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>RCYC</t>
+  </si>
+  <si>
+    <t>OIL_</t>
+  </si>
+  <si>
+    <t>LVST</t>
+  </si>
+  <si>
+    <t>IORE</t>
+  </si>
+  <si>
+    <t>GRAI</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>ENSP</t>
+  </si>
+  <si>
+    <t>AORE</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>PORE</t>
+  </si>
+  <si>
+    <t>O2__</t>
+  </si>
+  <si>
+    <t>CTAR</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>LIME</t>
+  </si>
+  <si>
+    <t>STSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +318,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Fira Code Retina"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Fira Code Retina"/>
     </font>
   </fonts>
@@ -277,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -288,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +710,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:BF18"/>
+  <dimension ref="B4:BF44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,61 +906,61 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE8" s="4" t="s">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -843,61 +968,61 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE9" s="4" t="s">
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1273,7 +1398,7 @@
       <c r="AB14" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AE14" t="s">
@@ -1416,6 +1541,165 @@
       </c>
       <c r="BF18" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+    </row>
+    <row r="23" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AD40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="30:31" x14ac:dyDescent="0.25">
+      <c r="AD44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/cargos/cargosList.xlsx
+++ b/cargos/cargosList.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="cargos and thresholds" sheetId="1" r:id="rId1"/>
+    <sheet name="cargolist" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="257">
   <si>
     <t>Base game</t>
   </si>
@@ -301,13 +302,499 @@
   </si>
   <si>
     <t>STSE</t>
+  </si>
+  <si>
+    <t>cargo index</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>temperate</t>
+  </si>
+  <si>
+    <t>arctic</t>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>STEL</t>
+  </si>
+  <si>
+    <t>WHEA</t>
+  </si>
+  <si>
+    <t>PAPR</t>
+  </si>
+  <si>
+    <t>RURB</t>
+  </si>
+  <si>
+    <t>MAIZ</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>SUGR</t>
+  </si>
+  <si>
+    <t>TOYS</t>
+  </si>
+  <si>
+    <t>BATT</t>
+  </si>
+  <si>
+    <t>TOFF</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
+  <si>
+    <t>CTCD</t>
+  </si>
+  <si>
+    <t>BUBL</t>
+  </si>
+  <si>
+    <t>PLST</t>
+  </si>
+  <si>
+    <t>firs 4</t>
+  </si>
+  <si>
+    <t>RFPR</t>
+  </si>
+  <si>
+    <t>KAOL</t>
+  </si>
+  <si>
+    <t>MILK</t>
+  </si>
+  <si>
+    <t>NH3_</t>
+  </si>
+  <si>
+    <t>BOOM</t>
+  </si>
+  <si>
+    <t>FERT</t>
+  </si>
+  <si>
+    <t>WDPR</t>
+  </si>
+  <si>
+    <t>PEAT</t>
+  </si>
+  <si>
+    <t>PHOS</t>
+  </si>
+  <si>
+    <t>POTA</t>
+  </si>
+  <si>
+    <t>SULP</t>
+  </si>
+  <si>
+    <t>ZINC</t>
+  </si>
+  <si>
+    <t>BEAN</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>COPR</t>
+  </si>
+  <si>
+    <t>NITR</t>
+  </si>
+  <si>
+    <t>WOOL</t>
+  </si>
+  <si>
+    <t>ACID</t>
+  </si>
+  <si>
+    <t>STAL</t>
+  </si>
+  <si>
+    <t>ALUM</t>
+  </si>
+  <si>
+    <t>CBLK</t>
+  </si>
+  <si>
+    <t>STCB</t>
+  </si>
+  <si>
+    <t>CSTI</t>
+  </si>
+  <si>
+    <t>CMNT</t>
+  </si>
+  <si>
+    <t>CHLO</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>COKE</t>
+  </si>
+  <si>
+    <t>POWR</t>
+  </si>
+  <si>
+    <t>CASS</t>
+  </si>
+  <si>
+    <t>CLAY</t>
+  </si>
+  <si>
+    <t>EOIL</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>prod1</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prod2</t>
+  </si>
+  <si>
+    <t>Tropic</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>refined</t>
+  </si>
+  <si>
+    <t>GLAS</t>
+  </si>
+  <si>
+    <t>LYE_</t>
+  </si>
+  <si>
+    <t>MNO2</t>
+  </si>
+  <si>
+    <t>COAT</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>PIPE</t>
+  </si>
+  <si>
+    <t>PLAS</t>
+  </si>
+  <si>
+    <t>QLME</t>
+  </si>
+  <si>
+    <t>RUBR</t>
+  </si>
+  <si>
+    <t>SLAG</t>
+  </si>
+  <si>
+    <t>STST</t>
+  </si>
+  <si>
+    <t>STSH</t>
+  </si>
+  <si>
+    <t>STWR</t>
+  </si>
+  <si>
+    <t>TYRE</t>
+  </si>
+  <si>
+    <t>VBOD</t>
+  </si>
+  <si>
+    <t>VENG</t>
+  </si>
+  <si>
+    <t>VPTS</t>
+  </si>
+  <si>
+    <t>FECR</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>PETR</t>
+  </si>
+  <si>
+    <t>GRVL</t>
+  </si>
+  <si>
+    <t>firs 3</t>
+  </si>
+  <si>
+    <t>Extrem</t>
+  </si>
+  <si>
+    <t>MNSP</t>
+  </si>
+  <si>
+    <t>METL</t>
+  </si>
+  <si>
+    <t>FICR</t>
+  </si>
+  <si>
+    <t>SGBT</t>
+  </si>
+  <si>
+    <t>firs5</t>
+  </si>
+  <si>
+    <t>CCPR</t>
+  </si>
+  <si>
+    <t>FEAL</t>
+  </si>
+  <si>
+    <t>FOCA</t>
+  </si>
+  <si>
+    <t>HWAR</t>
+  </si>
+  <si>
+    <t>N7__</t>
+  </si>
+  <si>
+    <t>PPWK</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>RBAR</t>
+  </si>
+  <si>
+    <t>SEAL</t>
+  </si>
+  <si>
+    <t>STBL</t>
+  </si>
+  <si>
+    <t>STIG</t>
+  </si>
+  <si>
+    <t>STBR</t>
+  </si>
+  <si>
+    <t>STPP</t>
+  </si>
+  <si>
+    <t>STSL</t>
+  </si>
+  <si>
+    <t>STTB</t>
+  </si>
+  <si>
+    <t>TYCO</t>
+  </si>
+  <si>
+    <t>WELD</t>
+  </si>
+  <si>
+    <t>ALO_</t>
+  </si>
+  <si>
+    <t>NHNO</t>
+  </si>
+  <si>
+    <t>COCO</t>
+  </si>
+  <si>
+    <t>C2H4</t>
+  </si>
+  <si>
+    <t>PPAR</t>
+  </si>
+  <si>
+    <t>steeltown</t>
+  </si>
+  <si>
+    <t>tropical paradise</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>textile</t>
+  </si>
+  <si>
+    <t>timber</t>
+  </si>
+  <si>
+    <t>SUAC</t>
+  </si>
+  <si>
+    <t>sulph acid</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>SGCN</t>
+  </si>
+  <si>
+    <t>sugar cane</t>
+  </si>
+  <si>
+    <t>RAMT</t>
+  </si>
+  <si>
+    <t>rare metal</t>
+  </si>
+  <si>
+    <t>Fibre</t>
+  </si>
+  <si>
+    <t>PHAC</t>
+  </si>
+  <si>
+    <t>H2__</t>
+  </si>
+  <si>
+    <t>ACET</t>
+  </si>
+  <si>
+    <t>acetic acid</t>
+  </si>
+  <si>
+    <t>BIOM</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>refined oil</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>copper conc</t>
+  </si>
+  <si>
+    <t>copper ore</t>
+  </si>
+  <si>
+    <t>edible oil</t>
+  </si>
+  <si>
+    <t>fertilizer</t>
+  </si>
+  <si>
+    <t>BAKE</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>food additives</t>
+  </si>
+  <si>
+    <t>Iron ore</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>MEAT</t>
+  </si>
+  <si>
+    <t>nitrates</t>
+  </si>
+  <si>
+    <t>OLSD</t>
+  </si>
+  <si>
+    <t>oil seed</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>phospho acid</t>
+  </si>
+  <si>
+    <t>raw2</t>
+  </si>
+  <si>
+    <t>raw1</t>
+  </si>
+  <si>
+    <t>raw scaled</t>
+  </si>
+  <si>
+    <t>raw supply</t>
+  </si>
+  <si>
+    <t>scrap metal ?</t>
+  </si>
+  <si>
+    <t>raw food</t>
+  </si>
+  <si>
+    <t>prod3</t>
+  </si>
+  <si>
+    <t>axis 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CHLO"</t>
+  </si>
+  <si>
+    <t>XIS</t>
+  </si>
+  <si>
+    <t>the Lot</t>
+  </si>
+  <si>
+    <t>URAN</t>
+  </si>
+  <si>
+    <t>NAIS</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +813,122 @@
       <color rgb="FF00B050"/>
       <name val="Fira Code Retina"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +959,70 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -393,11 +1056,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -409,9 +1102,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,15 +1444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH29" sqref="AH29"/>
+      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
@@ -760,7 +1492,7 @@
     <col min="56" max="56" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:58" ht="15.75" thickBot="1">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +1555,7 @@
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
     </row>
-    <row r="5" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:58" ht="15.75" thickBot="1">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,7 +1634,7 @@
       </c>
       <c r="BF5" s="3"/>
     </row>
-    <row r="8" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:58" ht="15.75">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -964,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:58" ht="15.75">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1026,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:58" ht="15.75">
       <c r="C10" s="4"/>
       <c r="F10" s="4"/>
       <c r="I10" s="4"/>
@@ -1035,7 +1767,7 @@
       <c r="U10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:58" ht="15.75">
       <c r="B11" s="5">
         <v>6000</v>
       </c>
@@ -1154,7 +1886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:58" ht="15.75">
       <c r="B12" s="5">
         <v>10000</v>
       </c>
@@ -1273,7 +2005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:58" ht="15.75">
       <c r="B13" s="5">
         <v>14000</v>
       </c>
@@ -1365,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:58" ht="15.75">
       <c r="B14" s="5">
         <v>19000</v>
       </c>
@@ -1430,7 +2162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" ht="15.75">
       <c r="B15" s="5">
         <v>24000</v>
       </c>
@@ -1489,7 +2221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:58" ht="15.75">
       <c r="B16" s="5">
         <v>29000</v>
       </c>
@@ -1512,7 +2244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:58" ht="15.75">
       <c r="B17" s="5">
         <v>34000</v>
       </c>
@@ -1535,7 +2267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:58" ht="15.75">
       <c r="BE18" s="4" t="s">
         <v>39</v>
       </c>
@@ -1543,14 +2275,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:58" ht="15.75">
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
     </row>
-    <row r="23" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:58" ht="15.75">
       <c r="AD23" s="10" t="s">
         <v>77</v>
       </c>
@@ -1558,7 +2290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:58" ht="15.75">
       <c r="AD24" s="10" t="s">
         <v>83</v>
       </c>
@@ -1566,7 +2298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:58" ht="15.75">
       <c r="AD25" s="10" t="s">
         <v>57</v>
       </c>
@@ -1574,7 +2306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:58" ht="15.75">
       <c r="AD26" s="10" t="s">
         <v>81</v>
       </c>
@@ -1582,7 +2314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:58" ht="15.75">
       <c r="AD27" s="10" t="s">
         <v>90</v>
       </c>
@@ -1590,7 +2322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:58" ht="15.75">
       <c r="AD28" s="10" t="s">
         <v>79</v>
       </c>
@@ -1598,7 +2330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:58" ht="15.75">
       <c r="AD29" s="10" t="s">
         <v>80</v>
       </c>
@@ -1606,7 +2338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:58" ht="15.75">
       <c r="AD30" s="10" t="s">
         <v>84</v>
       </c>
@@ -1614,7 +2346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:58" ht="15.75">
       <c r="AD31" s="10" t="s">
         <v>86</v>
       </c>
@@ -1622,7 +2354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:58" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:58" ht="15.75">
       <c r="AD32" s="10" t="s">
         <v>92</v>
       </c>
@@ -1630,7 +2362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="30:31" ht="15.75">
       <c r="AD33" s="10" t="s">
         <v>87</v>
       </c>
@@ -1638,7 +2370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="30:31" ht="15.75">
       <c r="AD34" s="10" t="s">
         <v>14</v>
       </c>
@@ -1646,7 +2378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="30:31" ht="15.75">
       <c r="AD35" s="10" t="s">
         <v>93</v>
       </c>
@@ -1654,7 +2386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="30:31" ht="15.75">
       <c r="AD36" s="10" t="s">
         <v>82</v>
       </c>
@@ -1662,7 +2394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="30:31" ht="15.75">
       <c r="AD37" s="10" t="s">
         <v>89</v>
       </c>
@@ -1670,7 +2402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="30:31" ht="15.75">
       <c r="AD38" s="10" t="s">
         <v>78</v>
       </c>
@@ -1678,7 +2410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="30:31" ht="15.75">
       <c r="AD39" s="10" t="s">
         <v>91</v>
       </c>
@@ -1686,7 +2418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="30:31" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="30:31" ht="15.75">
       <c r="AD40" s="10" t="s">
         <v>85</v>
       </c>
@@ -1694,7 +2426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="30:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="30:31">
       <c r="AD44" t="s">
         <v>94</v>
       </c>
@@ -1710,24 +2442,6226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BC70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A1:XFD66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.140625" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.7109375" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.42578125" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7.42578125" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.7109375" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.42578125" collapsed="1"/>
+    <col min="23" max="23" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.42578125" collapsed="1"/>
+    <col min="25" max="25" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.42578125" collapsed="1"/>
+    <col min="27" max="27" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="11.42578125" collapsed="1"/>
+    <col min="29" max="29" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="11.42578125" collapsed="1"/>
+    <col min="31" max="31" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="11.42578125" collapsed="1"/>
+    <col min="33" max="33" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="11.42578125" collapsed="1"/>
+    <col min="36" max="36" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="11.42578125" collapsed="1"/>
+    <col min="38" max="38" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="11.42578125" collapsed="1"/>
+    <col min="40" max="40" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="11.42578125" collapsed="1"/>
+    <col min="42" max="42" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="11.42578125" collapsed="1"/>
+    <col min="44" max="44" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="11.42578125" collapsed="1"/>
+    <col min="47" max="47" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="11.42578125" collapsed="1"/>
+    <col min="49" max="50" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="11.42578125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="15.75" thickBot="1">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="15"/>
+      <c r="V1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="15.75" thickBot="1">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW2" s="3"/>
+      <c r="AZ2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V6" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S7" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S10" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="V16" t="s">
+        <v>82</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="V17" t="s">
+        <v>119</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="V18" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>144</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z19" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V20" t="s">
+        <v>102</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB20" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S21" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z21" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB21" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>172</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>155</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S23" t="s">
+        <v>106</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S24" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB24" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S26" t="s">
+        <v>81</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD26" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>157</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S28" t="s">
+        <v>125</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD28" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>158</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S29" t="s">
+        <v>163</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD29" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S30" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB30" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD30" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S31" t="s">
+        <v>175</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>161</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>162</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB33" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>163</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>57</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:55">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>79</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>164</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>78</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:55">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:55">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:55">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:55">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:55">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>127</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:55">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>128</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>126</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>246</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="A67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="A68">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50">
+      <c r="A69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:50">
+      <c r="A70">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AX2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:62">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62">
+      <c r="S2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="26" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1">
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="25" customFormat="1">
+      <c r="A3" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="23" customFormat="1">
+      <c r="A4" s="23">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="23" customFormat="1">
+      <c r="A5" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="23" customFormat="1">
+      <c r="A6" s="23">
+        <v>16</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="23" customFormat="1">
+      <c r="A7" s="23">
+        <v>10</v>
+      </c>
+      <c r="B7" s="23">
+        <v>4</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="23" customFormat="1">
+      <c r="A8" s="23">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="W8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="23" customFormat="1">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="23" customFormat="1">
+      <c r="A10" s="23">
+        <v>11</v>
+      </c>
+      <c r="B10" s="23">
+        <v>7</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="23" customFormat="1">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="24" customFormat="1">
+      <c r="A12" s="24">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="24" customFormat="1">
+      <c r="A13" s="24">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="W13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y13" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z13" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="23" customFormat="1">
+      <c r="B14" s="23">
+        <v>11</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="23" customFormat="1">
+      <c r="B15" s="23">
+        <v>12</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="23" customFormat="1">
+      <c r="B16" s="23">
+        <v>13</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" s="23" customFormat="1">
+      <c r="B17" s="23">
+        <v>14</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z17" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" s="23" customFormat="1">
+      <c r="B18" s="23">
+        <v>15</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" s="23" customFormat="1">
+      <c r="B19" s="23">
+        <v>16</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z19" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" s="23" customFormat="1">
+      <c r="B20" s="23">
+        <v>17</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="X20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" s="23" customFormat="1">
+      <c r="B21" s="24">
+        <v>18</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" s="23" customFormat="1">
+      <c r="B22" s="23">
+        <v>19</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="23" customFormat="1">
+      <c r="B23" s="23">
+        <v>20</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z23" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" s="23" customFormat="1">
+      <c r="B24" s="23">
+        <v>21</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="23" customFormat="1">
+      <c r="B25" s="23">
+        <v>22</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" s="23" customFormat="1">
+      <c r="B26" s="23">
+        <v>23</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X26" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" s="23" customFormat="1">
+      <c r="B27" s="23">
+        <v>24</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="23" customFormat="1">
+      <c r="B28" s="23">
+        <v>25</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="23" customFormat="1">
+      <c r="B29" s="23">
+        <v>26</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="W29" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="X29" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z29" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="23" customFormat="1">
+      <c r="B30" s="23">
+        <v>27</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="W30" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="X30" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="23" customFormat="1">
+      <c r="B31" s="23">
+        <v>28</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="W31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y31" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" s="23" customFormat="1">
+      <c r="B32" s="23">
+        <v>29</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z32" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" s="23" customFormat="1">
+      <c r="B33" s="23">
+        <v>30</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z33" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" s="23" customFormat="1">
+      <c r="B34" s="23">
+        <v>31</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y34" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" s="23" customFormat="1">
+      <c r="B35" s="23">
+        <v>32</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="X35" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" s="23" customFormat="1">
+      <c r="B36" s="23">
+        <v>33</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="X36" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y36" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" s="23" customFormat="1">
+      <c r="B37" s="23">
+        <v>34</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="W37" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="X37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" s="23" customFormat="1">
+      <c r="B38" s="23">
+        <v>35</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="U38" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="W38" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="X38" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y38" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" s="23" customFormat="1">
+      <c r="B39" s="23">
+        <v>36</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="X39" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" s="23" customFormat="1">
+      <c r="B40" s="23">
+        <v>37</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="U40" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="W40" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="X40" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" s="23" customFormat="1">
+      <c r="B41" s="23">
+        <v>38</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" s="23" customFormat="1">
+      <c r="B42" s="23">
+        <v>39</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="U42" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="W42" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="X42" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y42" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" s="23" customFormat="1">
+      <c r="B43" s="23">
+        <v>40</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="U43" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="W43" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="X43" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y43" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" s="23" customFormat="1">
+      <c r="B44" s="23">
+        <v>41</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="U44" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="W44" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="X44" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y44" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" s="23" customFormat="1">
+      <c r="B45" s="23">
+        <v>42</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="U45" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="W45" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="X45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y45" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" s="23" customFormat="1">
+      <c r="B46" s="23">
+        <v>43</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="U46" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="W46" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="X46" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y46" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" s="23" customFormat="1">
+      <c r="B47" s="23">
+        <v>44</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="U47" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="W47" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X47" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y47" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" s="23" customFormat="1">
+      <c r="B48" s="23">
+        <v>45</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U48" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="W48" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="X48" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y48" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" s="23" customFormat="1">
+      <c r="B49" s="23">
+        <v>46</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="W49" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="X49" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y49" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>126</v>
+      </c>
+      <c r="U50" t="s">
+        <v>166</v>
+      </c>
+      <c r="W50" t="s">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="U51" t="s">
+        <v>196</v>
+      </c>
+      <c r="W51" t="s">
+        <v>163</v>
+      </c>
+      <c r="X51" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="U52" t="s">
+        <v>197</v>
+      </c>
+      <c r="W52" t="s">
+        <v>57</v>
+      </c>
+      <c r="X52" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="U53" t="s">
+        <v>167</v>
+      </c>
+      <c r="W53" t="s">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="U54" t="s">
+        <v>127</v>
+      </c>
+      <c r="W54" t="s">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="U55" t="s">
+        <v>198</v>
+      </c>
+      <c r="W55" t="s">
+        <v>164</v>
+      </c>
+      <c r="X55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="U56" t="s">
+        <v>168</v>
+      </c>
+      <c r="W56" t="s">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="U57" t="s">
+        <v>36</v>
+      </c>
+      <c r="W57" t="s">
+        <v>94</v>
+      </c>
+      <c r="X57" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="U58" t="s">
+        <v>169</v>
+      </c>
+      <c r="W58" t="s">
+        <v>166</v>
+      </c>
+      <c r="X58" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="U59" t="s">
+        <v>170</v>
+      </c>
+      <c r="W59" t="s">
+        <v>167</v>
+      </c>
+      <c r="X59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="U60" t="s">
+        <v>171</v>
+      </c>
+      <c r="W60" t="s">
+        <v>127</v>
+      </c>
+      <c r="X60" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>199</v>
+      </c>
+      <c r="W61" t="s">
+        <v>168</v>
+      </c>
+      <c r="X61" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="U62" t="s">
+        <v>128</v>
+      </c>
+      <c r="W62" t="s">
+        <v>169</v>
+      </c>
+      <c r="X62" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="W63" t="s">
+        <v>170</v>
+      </c>
+      <c r="X63" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="W64" t="s">
+        <v>171</v>
+      </c>
+      <c r="X64" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="W65" t="s">
+        <v>36</v>
+      </c>
+      <c r="X65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="W66" t="s">
+        <v>128</v>
+      </c>
+      <c r="X66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cargos/cargosList.xlsx
+++ b/cargos/cargosList.xlsx
@@ -794,7 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,8 +927,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1028,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1090,7 +1103,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1137,6 +1150,7 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calcul" xfId="4" builtinId="22"/>
@@ -6113,7 +6127,7 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6174,7 +6188,7 @@
       <c r="H2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="42" t="s">
         <v>152</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -6189,7 +6203,7 @@
       <c r="M2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="42" t="s">
         <v>152</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -7134,19 +7148,19 @@
       <c r="K14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="32" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="38" t="s">
@@ -7214,7 +7228,7 @@
       <c r="P15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="32" t="s">
         <v>85</v>
       </c>
       <c r="R15" s="23" t="s">
@@ -7279,7 +7293,7 @@
       <c r="P16" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="32" t="s">
         <v>14</v>
       </c>
       <c r="R16" s="23" t="s">
@@ -7344,7 +7358,7 @@
       <c r="P17" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="32" t="s">
         <v>84</v>
       </c>
       <c r="R17" s="23" t="s">
@@ -8663,5 +8677,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>